--- a/biology/Zoologie/Réserve_naturelle_domaniale_des_Hautes-Fagnes/Réserve_naturelle_domaniale_des_Hautes-Fagnes.xlsx
+++ b/biology/Zoologie/Réserve_naturelle_domaniale_des_Hautes-Fagnes/Réserve_naturelle_domaniale_des_Hautes-Fagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_domaniale_des_Hautes-Fagnes</t>
+          <t>Réserve_naturelle_domaniale_des_Hautes-Fagnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve naturelle domaniale des Hautes-Fagnes a été créée par la Belgique en 1957 ; élargie à plusieurs reprises depuis lors, elle est définie par l'Arrêté du Gouvernement wallon du 31 mai 2000 portant création des réserves naturelles domaniales des Hautes-Fagnes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve naturelle domaniale des Hautes-Fagnes a été créée par la Belgique en 1957 ; élargie à plusieurs reprises depuis lors, elle est définie par l'Arrêté du Gouvernement wallon du 31 mai 2000 portant création des réserves naturelles domaniales des Hautes-Fagnes.
 Avec une surface totale de 4 501 ha, la réserve naturelle domaniale des Hautes-Fagnes est la plus grande réserve naturelle de Belgique. Située à l'Est de la Belgique à proximité de la frontière allemande, elle comprend essentiellement des tourbières hautes, entourées de landes plus sèches et de forêts de conifères, parfois de feuillus.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_domaniale_des_Hautes-Fagnes</t>
+          <t>Réserve_naturelle_domaniale_des_Hautes-Fagnes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>odonates
 Æschne subarctique
